--- a/app/Licenciatura_em_Sociologia.xlsx
+++ b/app/Licenciatura_em_Sociologia.xlsx
@@ -21,32 +21,29 @@
     <sheet name="20154201" sheetId="11" r:id="rId14"/>
     <sheet name="20154209" sheetId="12" r:id="rId15"/>
     <sheet name="20154206" sheetId="13" r:id="rId16"/>
-    <sheet name="20154495" sheetId="14" r:id="rId17"/>
-    <sheet name="20154197" sheetId="15" r:id="rId18"/>
-    <sheet name="20154199" sheetId="16" r:id="rId19"/>
-    <sheet name="20154496" sheetId="17" r:id="rId20"/>
-    <sheet name="20154198" sheetId="18" r:id="rId21"/>
-    <sheet name="20154195" sheetId="19" r:id="rId22"/>
-    <sheet name="20154221" sheetId="20" r:id="rId23"/>
-    <sheet name="20154207" sheetId="21" r:id="rId24"/>
-    <sheet name="20154219" sheetId="22" r:id="rId25"/>
-    <sheet name="20154192" sheetId="23" r:id="rId26"/>
-    <sheet name="20154210" sheetId="24" r:id="rId27"/>
-    <sheet name="20154200" sheetId="25" r:id="rId28"/>
-    <sheet name="20154216" sheetId="26" r:id="rId29"/>
-    <sheet name="20154215" sheetId="27" r:id="rId30"/>
-    <sheet name="20154208" sheetId="28" r:id="rId31"/>
-    <sheet name="20154212" sheetId="29" r:id="rId32"/>
-    <sheet name="20154823" sheetId="30" r:id="rId33"/>
-    <sheet name="20154217" sheetId="31" r:id="rId34"/>
-    <sheet name="20154204" sheetId="32" r:id="rId35"/>
-    <sheet name="20154196" sheetId="33" r:id="rId36"/>
-    <sheet name="20154205" sheetId="34" r:id="rId37"/>
-    <sheet name="20154203" sheetId="35" r:id="rId38"/>
-    <sheet name="20154214" sheetId="36" r:id="rId39"/>
-    <sheet name="20154222" sheetId="37" r:id="rId40"/>
-    <sheet name="Sheet2" sheetId="38" r:id="rId41"/>
-    <sheet name="Sheet3" sheetId="39" r:id="rId42"/>
+    <sheet name="20154197" sheetId="14" r:id="rId17"/>
+    <sheet name="20154199" sheetId="15" r:id="rId18"/>
+    <sheet name="20154198" sheetId="16" r:id="rId19"/>
+    <sheet name="20154195" sheetId="17" r:id="rId20"/>
+    <sheet name="20154221" sheetId="18" r:id="rId21"/>
+    <sheet name="20154207" sheetId="19" r:id="rId22"/>
+    <sheet name="20154219" sheetId="20" r:id="rId23"/>
+    <sheet name="20154192" sheetId="21" r:id="rId24"/>
+    <sheet name="20154210" sheetId="22" r:id="rId25"/>
+    <sheet name="20154200" sheetId="23" r:id="rId26"/>
+    <sheet name="20154216" sheetId="24" r:id="rId27"/>
+    <sheet name="20154215" sheetId="25" r:id="rId28"/>
+    <sheet name="20154208" sheetId="26" r:id="rId29"/>
+    <sheet name="20154212" sheetId="27" r:id="rId30"/>
+    <sheet name="20154217" sheetId="28" r:id="rId31"/>
+    <sheet name="20154204" sheetId="29" r:id="rId32"/>
+    <sheet name="20154196" sheetId="30" r:id="rId33"/>
+    <sheet name="20154205" sheetId="31" r:id="rId34"/>
+    <sheet name="20154203" sheetId="32" r:id="rId35"/>
+    <sheet name="20154214" sheetId="33" r:id="rId36"/>
+    <sheet name="20154222" sheetId="34" r:id="rId37"/>
+    <sheet name="Sheet2" sheetId="35" r:id="rId38"/>
+    <sheet name="Sheet3" sheetId="36" r:id="rId39"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -54,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -203,9 +200,6 @@
     <t>Cid&amp;#65533;lia Francisco</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -242,9 +236,6 @@
     <t>Carlota Chicuamba</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -272,9 +263,6 @@
     <t>Idalina Bernardo Timana</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110100555414J</t>
   </si>
   <si>
@@ -299,9 +287,6 @@
     <t>Adelia Tamele</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110102251452F</t>
   </si>
   <si>
@@ -326,9 +311,6 @@
     <t>Olga Valoi</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110100642473N</t>
   </si>
   <si>
@@ -398,9 +380,6 @@
     <t>Marieta Mainga</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>110201536395Q</t>
   </si>
   <si>
@@ -467,9 +446,6 @@
     <t>Gilda Fernando Nhamussua</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110501097452Q</t>
   </si>
   <si>
@@ -500,195 +476,177 @@
     <t>+258841212729</t>
   </si>
   <si>
-    <t>Maulana</t>
-  </si>
-  <si>
-    <t>Ali Ija</t>
+    <t>Manjate</t>
+  </si>
+  <si>
+    <t>Narcizia Da Sonia</t>
+  </si>
+  <si>
+    <t>1998-02-25</t>
+  </si>
+  <si>
+    <t>CustÓdio Francisco V. Manjate</t>
+  </si>
+  <si>
+    <t>SÓnia JoÃo Tivane</t>
+  </si>
+  <si>
+    <t>110202727909F</t>
+  </si>
+  <si>
+    <t>+258844957876</t>
+  </si>
+  <si>
+    <t>Madede</t>
+  </si>
+  <si>
+    <t>Shelsia Oscar</t>
+  </si>
+  <si>
+    <t>1997-06-10</t>
+  </si>
+  <si>
+    <t>Oscar Paulo Madede</t>
+  </si>
+  <si>
+    <t>Celeste Francisco Banze</t>
+  </si>
+  <si>
+    <t>110101522072B</t>
+  </si>
+  <si>
+    <t>+258848953711</t>
+  </si>
+  <si>
+    <t>Escola Secundaria da Matola</t>
+  </si>
+  <si>
+    <t>Mabunda</t>
+  </si>
+  <si>
+    <t>Fernando Albino</t>
+  </si>
+  <si>
+    <t>1990-08-14</t>
+  </si>
+  <si>
+    <t>Albino Mabunda</t>
+  </si>
+  <si>
+    <t>Adelina Bembele</t>
+  </si>
+  <si>
+    <t>100101258099B</t>
+  </si>
+  <si>
+    <t>+258826666768</t>
+  </si>
+  <si>
+    <t>Seminario Medio "Cristo Rei"</t>
+  </si>
+  <si>
+    <t>Mabota</t>
+  </si>
+  <si>
+    <t>Naila Da Sofia Rafael Mabota</t>
+  </si>
+  <si>
+    <t>1994-04-26</t>
+  </si>
+  <si>
+    <t>Rafael Alfredo Mabota</t>
+  </si>
+  <si>
+    <t>Sofia Tomas Mulungo</t>
+  </si>
+  <si>
+    <t>110200186391M</t>
+  </si>
+  <si>
+    <t>+258826168297</t>
+  </si>
+  <si>
+    <t>Joao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falaque Henriques </t>
+  </si>
+  <si>
+    <t>1993-06-04</t>
+  </si>
+  <si>
+    <t>Henriques Joao Falaque</t>
+  </si>
+  <si>
+    <t>Isabel Luciano Nhatsava</t>
+  </si>
+  <si>
+    <t>110102280202F</t>
+  </si>
+  <si>
+    <t>+258820994217</t>
+  </si>
+  <si>
+    <t>Escola Secundaria de Cambine</t>
+  </si>
+  <si>
+    <t>Inguane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angelica Alberto </t>
+  </si>
+  <si>
+    <t>1990-02-09</t>
+  </si>
+  <si>
+    <t>Alberto Inguane</t>
+  </si>
+  <si>
+    <t>Amelia Mateulane</t>
+  </si>
+  <si>
+    <t>Passaporte</t>
+  </si>
+  <si>
+    <t>12AB38375</t>
+  </si>
+  <si>
+    <t>+258843888245</t>
+  </si>
+  <si>
+    <t>Escola Secundaria Noroeste 1</t>
+  </si>
+  <si>
+    <t>Homwane</t>
+  </si>
+  <si>
+    <t>Ricardo Sebastiao</t>
+  </si>
+  <si>
+    <t>1997-01-05</t>
+  </si>
+  <si>
+    <t>Sebastiao Ricardo Homwane</t>
+  </si>
+  <si>
+    <t>Alice Vicente Mazive</t>
+  </si>
+  <si>
+    <t>100102653830P</t>
+  </si>
+  <si>
+    <t>+258847811410</t>
+  </si>
+  <si>
+    <t>Hofisso</t>
+  </si>
+  <si>
+    <t>Leonardo Abilio</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>Manjate</t>
-  </si>
-  <si>
-    <t>Narcizia Da Sonia</t>
-  </si>
-  <si>
-    <t>1998-02-25</t>
-  </si>
-  <si>
-    <t>CustÓdio Francisco V. Manjate</t>
-  </si>
-  <si>
-    <t>SÓnia JoÃo Tivane</t>
-  </si>
-  <si>
-    <t>110202727909F</t>
-  </si>
-  <si>
-    <t>+258844957876</t>
-  </si>
-  <si>
-    <t>Madede</t>
-  </si>
-  <si>
-    <t>Shelsia Oscar</t>
-  </si>
-  <si>
-    <t>1997-06-10</t>
-  </si>
-  <si>
-    <t>Oscar Paulo Madede</t>
-  </si>
-  <si>
-    <t>Celeste Francisco Banze</t>
-  </si>
-  <si>
-    <t>110101522072B</t>
-  </si>
-  <si>
-    <t>+258848953711</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Matola</t>
-  </si>
-  <si>
-    <t>Macuácua</t>
-  </si>
-  <si>
-    <t>Mário Regio Benjamim</t>
-  </si>
-  <si>
-    <t>Mabunda</t>
-  </si>
-  <si>
-    <t>Fernando Albino</t>
-  </si>
-  <si>
-    <t>1990-08-14</t>
-  </si>
-  <si>
-    <t>Albino Mabunda</t>
-  </si>
-  <si>
-    <t>Adelina Bembele</t>
-  </si>
-  <si>
-    <t>100101258099B</t>
-  </si>
-  <si>
-    <t>+258826666768</t>
-  </si>
-  <si>
-    <t>Seminario Medio "Cristo Rei"</t>
-  </si>
-  <si>
-    <t>Mabota</t>
-  </si>
-  <si>
-    <t>Naila Da Sofia Rafael Mabota</t>
-  </si>
-  <si>
-    <t>1994-04-26</t>
-  </si>
-  <si>
-    <t>Rafael Alfredo Mabota</t>
-  </si>
-  <si>
-    <t>Sofia Tomas Mulungo</t>
-  </si>
-  <si>
-    <t>110200186391M</t>
-  </si>
-  <si>
-    <t>+258826168297</t>
-  </si>
-  <si>
-    <t>Joao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falaque Henriques </t>
-  </si>
-  <si>
-    <t>1993-06-04</t>
-  </si>
-  <si>
-    <t>Henriques Joao Falaque</t>
-  </si>
-  <si>
-    <t>Isabel Luciano Nhatsava</t>
-  </si>
-  <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
-    <t>110102280202F</t>
-  </si>
-  <si>
-    <t>+258820994217</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Cambine</t>
-  </si>
-  <si>
-    <t>Inguane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angelica Alberto </t>
-  </si>
-  <si>
-    <t>1990-02-09</t>
-  </si>
-  <si>
-    <t>Alberto Inguane</t>
-  </si>
-  <si>
-    <t>Amelia Mateulane</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
-    <t>Passaporte</t>
-  </si>
-  <si>
-    <t>12AB38375</t>
-  </si>
-  <si>
-    <t>+258843888245</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Noroeste 1</t>
-  </si>
-  <si>
-    <t>Homwane</t>
-  </si>
-  <si>
-    <t>Ricardo Sebastiao</t>
-  </si>
-  <si>
-    <t>1997-01-05</t>
-  </si>
-  <si>
-    <t>Sebastiao Ricardo Homwane</t>
-  </si>
-  <si>
-    <t>Alice Vicente Mazive</t>
-  </si>
-  <si>
-    <t>100102653830P</t>
-  </si>
-  <si>
-    <t>+258847811410</t>
-  </si>
-  <si>
-    <t>Hofisso</t>
-  </si>
-  <si>
-    <t>Leonardo Abilio</t>
-  </si>
-  <si>
     <t>Gundana</t>
   </si>
   <si>
@@ -704,9 +662,6 @@
     <t>Marta Joao Nhica</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070104291951Q</t>
   </si>
   <si>
@@ -800,9 +755,6 @@
     <t>Amelia Lourenco Nhanala</t>
   </si>
   <si>
-    <t>Distrito de Massinga</t>
-  </si>
-  <si>
     <t>080600925855N</t>
   </si>
   <si>
@@ -836,12 +788,6 @@
     <t>Escola Secundaria Quisse Mavota</t>
   </si>
   <si>
-    <t>Comé</t>
-  </si>
-  <si>
-    <t>Alice Bento</t>
-  </si>
-  <si>
     <t>Chirindza</t>
   </si>
   <si>
@@ -978,9 +924,6 @@
   </si>
   <si>
     <t>Laurinda Alberto MacÚacua</t>
-  </si>
-  <si>
-    <t>Distrito de Vilanculos</t>
   </si>
   <si>
     <t>110101527533P</t>
@@ -2249,7 +2192,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2265,7 +2208,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2281,7 +2224,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2297,7 +2240,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2313,7 +2256,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2328,9 +2271,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2338,7 +2279,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2349,7 +2290,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2358,7 +2299,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2370,7 +2311,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2378,7 +2319,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2474,7 +2415,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2517,7 +2458,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2844,7 +2785,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2860,7 +2801,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2876,7 +2817,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2892,7 +2833,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2908,7 +2849,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2923,9 +2864,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2933,7 +2872,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2944,7 +2883,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2953,7 +2892,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2965,7 +2904,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2973,7 +2912,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3069,7 +3008,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3112,7 +3051,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3439,7 +3378,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3455,7 +3394,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3471,7 +3410,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3487,7 +3426,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3503,7 +3442,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3518,9 +3457,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3528,7 +3465,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3539,7 +3476,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3548,7 +3485,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3560,7 +3497,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3568,7 +3505,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3664,7 +3601,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3707,7 +3644,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4034,7 +3971,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4050,7 +3987,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4066,7 +4003,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4082,7 +4019,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4098,7 +4035,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4113,9 +4050,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4123,7 +4058,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4134,7 +4069,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4143,7 +4078,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4155,7 +4090,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4163,7 +4098,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4259,7 +4194,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4302,7 +4237,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4553,7 +4488,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -4603,7 +4540,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154495</v>
+        <v>20154197</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4627,7 +4564,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4643,7 +4580,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4658,7 +4595,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>143</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -4672,7 +4611,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>144</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -4686,7 +4627,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -4707,7 +4650,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -4716,14 +4661,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -4733,13 +4682,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>146</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -4834,7 +4787,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4860,7 +4813,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2014</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -4874,7 +4829,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -5176,7 +5133,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154197</v>
+        <v>20154199</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5200,7 +5157,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5216,7 +5173,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5232,7 +5189,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5248,7 +5205,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5264,7 +5221,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5279,9 +5236,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5289,7 +5244,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5300,7 +5255,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5309,7 +5264,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5321,7 +5276,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5329,7 +5284,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5425,7 +5380,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5468,7 +5423,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5771,7 +5726,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154199</v>
+        <v>20154198</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5795,7 +5750,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5811,7 +5766,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5827,7 +5782,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5843,7 +5798,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5859,7 +5814,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5874,9 +5829,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5884,7 +5837,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5895,7 +5848,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5904,7 +5857,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5916,7 +5869,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5924,7 +5877,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6020,7 +5973,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6047,7 +6000,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6063,7 +6016,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6314,7 +6267,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -6364,7 +6319,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154496</v>
+        <v>20154195</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6388,7 +6343,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6404,7 +6359,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6419,7 +6374,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>166</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -6433,7 +6390,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>167</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -6447,7 +6406,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>168</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -6468,7 +6429,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -6477,14 +6440,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -6494,13 +6461,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>169</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -6595,7 +6566,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6621,7 +6592,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2012</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -6635,7 +6608,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -6937,7 +6912,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154198</v>
+        <v>20154221</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6961,7 +6936,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6977,7 +6952,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6993,7 +6968,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7009,7 +6984,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7025,7 +7000,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7040,9 +7015,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7050,7 +7023,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7061,7 +7034,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7070,7 +7043,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7082,7 +7055,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7090,7 +7063,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7186,7 +7159,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7213,7 +7186,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7229,7 +7202,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7532,7 +7505,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154195</v>
+        <v>20154207</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7556,7 +7529,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7572,7 +7545,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7588,7 +7561,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7604,7 +7577,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7620,7 +7593,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7635,9 +7608,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7645,7 +7616,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7656,7 +7627,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7665,7 +7636,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7677,7 +7648,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>184</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7685,7 +7656,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7781,7 +7752,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7808,7 +7779,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7824,7 +7795,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8230,9 +8201,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8240,7 +8209,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8251,7 +8220,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8260,7 +8229,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8272,7 +8241,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8280,7 +8249,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8376,7 +8345,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8419,7 +8388,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8722,7 +8691,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154221</v>
+        <v>20154219</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8746,7 +8715,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8762,7 +8731,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8778,7 +8747,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8794,7 +8763,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8810,7 +8779,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8825,9 +8794,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>188</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8835,7 +8802,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8846,7 +8813,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8855,7 +8822,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8867,7 +8834,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8875,7 +8842,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8971,7 +8938,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8998,7 +8965,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -9014,7 +8981,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9317,7 +9284,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154207</v>
+        <v>20154192</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9341,7 +9308,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9357,7 +9324,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9372,9 +9339,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>194</v>
-      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -9388,9 +9353,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>195</v>
-      </c>
+      <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -9404,9 +9367,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>196</v>
-      </c>
+      <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -9420,18 +9381,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>197</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -9440,18 +9397,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
+      <c r="C16" s="20"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="H16" s="20"/>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -9461,17 +9414,13 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>198</v>
-      </c>
+      <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>199</v>
-      </c>
+      <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -9566,7 +9515,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9592,9 +9541,7 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2010</v>
-      </c>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -9608,9 +9555,7 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>201</v>
-      </c>
+      <c r="C28" s="20"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -9912,7 +9857,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154219</v>
+        <v>20154210</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9936,7 +9881,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9952,7 +9897,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9968,7 +9913,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9984,7 +9929,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10000,7 +9945,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10015,9 +9960,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10025,7 +9968,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10036,7 +9979,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10045,7 +9988,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10057,7 +10000,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10065,7 +10008,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10161,7 +10104,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10204,7 +10147,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10507,7 +10450,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154192</v>
+        <v>20154200</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10531,7 +10474,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10547,7 +10490,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10562,7 +10505,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>208</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -10576,7 +10521,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>209</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -10590,7 +10537,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>210</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -10611,7 +10560,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -10620,14 +10571,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -10637,13 +10592,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -10738,7 +10697,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>212</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10764,7 +10723,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2009</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -10778,7 +10739,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>155</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -11080,7 +11043,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154210</v>
+        <v>20154216</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11104,7 +11067,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11120,7 +11083,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11136,7 +11099,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11152,7 +11115,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11168,7 +11131,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11183,9 +11146,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>216</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11193,7 +11154,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11204,7 +11165,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11213,7 +11174,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11225,7 +11186,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11233,7 +11194,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11329,7 +11290,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11356,7 +11317,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11372,7 +11333,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11675,7 +11636,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154200</v>
+        <v>20154215</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11699,7 +11660,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11715,7 +11676,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11731,7 +11692,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11747,7 +11708,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11763,7 +11724,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11778,9 +11739,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11788,7 +11747,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11799,7 +11758,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11808,7 +11767,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11820,7 +11779,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11828,7 +11787,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11924,7 +11883,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11951,7 +11910,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11967,7 +11926,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12270,7 +12229,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154216</v>
+        <v>20154208</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12294,7 +12253,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12310,7 +12269,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12326,7 +12285,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12342,7 +12301,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12358,7 +12317,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12373,9 +12332,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12383,7 +12340,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12394,7 +12351,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12403,7 +12360,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12415,7 +12372,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12423,7 +12380,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12519,7 +12476,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12546,7 +12503,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2003</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12562,7 +12519,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12865,7 +12822,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154215</v>
+        <v>20154212</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12889,7 +12846,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12905,7 +12862,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12921,7 +12878,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12937,7 +12894,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12953,7 +12910,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12968,9 +12925,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12978,7 +12933,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12989,7 +12944,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12998,7 +12953,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13010,7 +12965,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13018,7 +12973,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13114,7 +13069,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13141,7 +13096,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13157,7 +13112,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13460,7 +13415,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154208</v>
+        <v>20154217</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13484,7 +13439,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13500,7 +13455,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13516,7 +13471,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13532,7 +13487,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13548,7 +13503,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13563,9 +13518,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>248</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13573,7 +13526,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13584,7 +13537,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13593,7 +13546,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13605,7 +13558,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13613,7 +13566,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13709,7 +13662,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13736,7 +13689,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13752,7 +13705,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14055,7 +14008,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154212</v>
+        <v>20154204</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14079,7 +14032,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14095,7 +14048,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14111,7 +14064,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14127,7 +14080,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14143,7 +14096,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14158,9 +14111,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14168,7 +14119,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14179,7 +14130,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14188,7 +14139,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14200,7 +14151,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14208,7 +14159,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14304,7 +14255,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14331,7 +14282,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14347,7 +14298,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>259</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14674,7 +14625,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14690,7 +14641,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14706,7 +14657,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14722,7 +14673,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14738,7 +14689,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14753,9 +14704,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14763,7 +14712,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14774,7 +14723,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14783,7 +14732,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14795,7 +14744,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14803,7 +14752,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14899,7 +14848,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14942,7 +14891,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15193,7 +15142,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -15243,7 +15194,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154823</v>
+        <v>20154196</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15267,7 +15218,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15283,7 +15234,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15298,7 +15249,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>260</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -15312,7 +15265,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>261</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -15326,7 +15281,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>262</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -15347,7 +15304,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -15356,14 +15315,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -15373,13 +15336,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>263</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -15474,7 +15441,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15500,7 +15467,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -15514,7 +15483,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -15816,7 +15787,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154217</v>
+        <v>20154205</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15840,7 +15811,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15856,7 +15827,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15872,7 +15843,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15888,7 +15859,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15904,7 +15875,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15919,9 +15890,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15929,7 +15898,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15940,7 +15909,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15949,7 +15918,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15961,7 +15930,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15969,7 +15938,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16065,7 +16034,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16092,7 +16061,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16108,7 +16077,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16411,7 +16380,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154204</v>
+        <v>20154203</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -16435,7 +16404,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16451,7 +16420,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16467,7 +16436,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16483,7 +16452,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16499,7 +16468,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16514,9 +16483,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16524,7 +16491,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16535,7 +16502,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16544,7 +16511,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16556,7 +16523,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16564,7 +16531,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16660,7 +16627,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16687,7 +16654,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -16703,7 +16670,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17006,7 +16973,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154196</v>
+        <v>20154214</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17030,7 +16997,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17046,7 +17013,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17062,7 +17029,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17078,7 +17045,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17094,7 +17061,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17109,9 +17076,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>137</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17119,7 +17084,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17130,7 +17095,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17139,7 +17104,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17151,7 +17116,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17159,7 +17124,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17255,7 +17220,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17298,7 +17263,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17601,7 +17566,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154205</v>
+        <v>20154222</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -17625,7 +17590,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17641,7 +17606,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17657,7 +17622,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17673,7 +17638,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17689,7 +17654,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17704,9 +17669,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17714,7 +17677,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17725,7 +17688,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17734,7 +17697,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17746,7 +17709,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17754,7 +17717,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17850,7 +17813,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17893,7 +17856,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>293</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18096,1791 +18059,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154203</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154214</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20154222</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>310</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2014</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -19904,7 +18082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20061,7 +18239,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20077,7 +18255,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20093,7 +18271,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20109,7 +18287,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20125,7 +18303,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20140,9 +18318,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20150,7 +18326,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20161,7 +18337,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20170,7 +18346,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20182,7 +18358,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20190,7 +18366,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20286,7 +18462,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20329,7 +18505,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20656,7 +18832,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20672,7 +18848,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20688,7 +18864,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20704,7 +18880,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20720,7 +18896,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20735,9 +18911,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20745,7 +18919,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20756,7 +18930,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20765,7 +18939,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20777,7 +18951,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20785,7 +18959,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20881,7 +19055,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20924,7 +19098,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21251,7 +19425,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21267,7 +19441,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21283,7 +19457,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21299,7 +19473,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21315,7 +19489,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21330,9 +19504,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21340,7 +19512,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21351,7 +19523,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21360,7 +19532,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21372,7 +19544,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21380,7 +19552,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21476,7 +19648,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21519,7 +19691,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21846,7 +20018,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21862,7 +20034,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21878,7 +20050,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21894,7 +20066,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21910,7 +20082,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21925,9 +20097,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21935,7 +20105,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21946,7 +20116,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21955,7 +20125,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21967,7 +20137,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21975,7 +20145,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22071,7 +20241,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22114,7 +20284,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22441,7 +20611,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22457,7 +20627,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22473,7 +20643,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22489,7 +20659,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22518,9 +20688,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22528,7 +20696,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22539,7 +20707,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22548,7 +20716,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22560,7 +20728,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22568,7 +20736,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22664,7 +20832,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22707,7 +20875,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23034,7 +21202,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23050,7 +21218,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23066,7 +21234,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23082,7 +21250,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23098,7 +21266,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23113,9 +21281,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23123,7 +21289,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23134,7 +21300,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23143,7 +21309,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23155,7 +21321,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23163,7 +21329,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23259,7 +21425,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23302,7 +21468,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
